--- a/Г-динамика/lab1_все.xlsx
+++ b/Г-динамика/lab1_все.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diontep/workspace/6sem/Г-динамика/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E9965D-19B0-C047-B7DC-4D3507492306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E920183-DDB0-CD4D-A8DF-999F54EBDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{F6891195-119E-8F42-A35C-9E7C55BCB356}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{F6891195-119E-8F42-A35C-9E7C55BCB356}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,2142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поляра первого рода</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2611111111111113E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.89082633420822399"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3200000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.173955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6971-C84C-8E71-911DBD969E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1146079167"/>
+        <c:axId val="1145484351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1146079167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>С</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1145484351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1145484351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cy</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146079167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поляра второго рода</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.670603674540682E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.87450918635170605"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.4630000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4172000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45878999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41472500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9AE-D64A-A488-A554E123F898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1152571055"/>
+        <c:axId val="1179048703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1152571055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cxa</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179048703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1179048703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cya</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152571055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C040EA76-FE94-EE88-170C-8D15F834D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFDC05C-C52D-098D-A47F-5BA54AFE6F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,15 +2579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E596A0F0-5792-E949-AEA7-692761485A79}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,167 +2597,192 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>8.6999999999999994E-3</v>
+      <c r="B3" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="D3" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>-3.78E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-6.4630000000000007E-2</v>
       </c>
-      <c r="F3" s="2">
-        <v>-0.04</v>
+      <c r="G3" s="1">
+        <v>3.4172000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.16569999999999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.34</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.45878999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.59130000000000005</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.36670000000000003</v>
+      <c r="G4" s="1">
+        <v>0.41472500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="2">
         <v>1.49E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.1009</v>
       </c>
-      <c r="F5" s="2">
-        <v>8.7499999999999994E-2</v>
+      <c r="G5" s="1">
+        <v>0.173955</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.1651</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.33900000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.45569999999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.46989999999999998</v>
+      <c r="G6" s="1">
+        <v>0.378027</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.1249</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.13263</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.13869999999999999</v>
+      <c r="G7" s="1">
+        <v>0.14424000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>11.081</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>10.593999999999999</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>7.21</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>5.8179999999999996</v>
       </c>
-      <c r="F8" s="1">
-        <v>5.37</v>
+      <c r="G8" s="1">
+        <v>2.7010000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.2535</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.2382</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.2722</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.2243</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.37819999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>